--- a/EMP_Region.xlsx
+++ b/EMP_Region.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amit\iNeuron.ai\Power BI\Data Sets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09182FFE-A2DD-4FD2-BF7D-C3A0578EF5CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="97">
   <si>
     <t>State</t>
   </si>
@@ -316,12 +310,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,7 +795,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -903,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -938,7 +932,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1115,33 +1109,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1187,7 @@
         <v>42679</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1213,7 @@
         <v>42608</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1245,7 +1239,7 @@
         <v>42762</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1265,7 @@
         <v>42350</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1291,7 @@
         <v>42102</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1323,7 +1317,7 @@
         <v>42455</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1349,7 +1343,7 @@
         <v>42328</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1375,7 +1369,7 @@
         <v>42839</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1401,7 +1395,7 @@
         <v>42380</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1421,7 @@
         <v>42538</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1453,7 +1447,7 @@
         <v>42298</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1479,7 +1473,7 @@
         <v>42101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +1499,7 @@
         <v>42143</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1525,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1557,7 +1551,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1583,7 +1577,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1609,7 +1603,7 @@
         <v>42106</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1635,7 +1629,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1661,7 +1655,7 @@
         <v>42747</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1687,7 +1681,7 @@
         <v>42055</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +1707,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1739,7 +1733,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1765,7 +1759,7 @@
         <v>42633</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1791,7 +1785,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1817,7 +1811,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1843,7 +1837,7 @@
         <v>42731</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1869,7 +1863,7 @@
         <v>42113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1895,7 +1889,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1921,7 +1915,7 @@
         <v>42502</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1947,7 +1941,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1967,7 @@
         <v>41898</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1999,7 +1993,7 @@
         <v>41656</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2025,7 +2019,7 @@
         <v>42293</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2051,7 +2045,7 @@
         <v>42473</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2077,7 +2071,7 @@
         <v>42250</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2103,7 +2097,7 @@
         <v>41665</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2129,7 +2123,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2155,7 +2149,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2181,7 +2175,7 @@
         <v>42589</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -2207,7 +2201,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -2233,7 +2227,7 @@
         <v>42119</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2259,7 +2253,7 @@
         <v>42057</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2285,7 +2279,7 @@
         <v>42061</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2311,7 +2305,7 @@
         <v>42321</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -2337,7 +2331,7 @@
         <v>42081</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -2363,7 +2357,7 @@
         <v>42167</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -2389,7 +2383,7 @@
         <v>42410</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -2415,7 +2409,7 @@
         <v>42094</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -2441,7 +2435,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2467,7 +2461,7 @@
         <v>42188</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -2493,7 +2487,7 @@
         <v>42182</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2519,7 +2513,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -2543,6 +2537,11 @@
       </c>
       <c r="H54" s="1">
         <v>42754</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
